--- a/biology/Botanique/Populage_à_fleurs_blanches/Populage_à_fleurs_blanches.xlsx
+++ b/biology/Botanique/Populage_à_fleurs_blanches/Populage_à_fleurs_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Populage_%C3%A0_fleurs_blanches</t>
+          <t>Populage_à_fleurs_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caltha leptosepala est une espèce de plante à fleurs de la famille des Renoncules présente à l'ouest de l'Amérique du Nord du Nouveau-Mexique jusqu'en Alaska.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Populage_%C3%A0_fleurs_blanches</t>
+          <t>Populage_à_fleurs_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l’ouest, Caltha leptosepala est présent de la Californie à l'Alaska en passant par la Colombie-Britannique. À l’est, elle est présente du Nouveau-Mexique jusqu’en Alberta[1]. Elle est ainsi présente dans les régions alpine et subalpine des massifs montagneux de la chaine des Cascades comme dans le parc national du mont Rainier.
-Les plantes présentes en intérieur des terres ont quelques petites différences avec celles présentes dans les chaînes montagneuses à proximité des côtes de l'océan Pacifique mais elles sont souvent traitées comme une seule et même espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l’ouest, Caltha leptosepala est présent de la Californie à l'Alaska en passant par la Colombie-Britannique. À l’est, elle est présente du Nouveau-Mexique jusqu’en Alberta. Elle est ainsi présente dans les régions alpine et subalpine des massifs montagneux de la chaine des Cascades comme dans le parc national du mont Rainier.
+Les plantes présentes en intérieur des terres ont quelques petites différences avec celles présentes dans les chaînes montagneuses à proximité des côtes de l'océan Pacifique mais elles sont souvent traitées comme une seule et même espèce.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Populage_%C3%A0_fleurs_blanches</t>
+          <t>Populage_à_fleurs_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caltha leptosepala est une plante vivace dont les feuilles partent de la base de la tige. Les feuilles font 13 à 15 cm de long et sont légèrement dentées sur leur bord. L'inflorescence possède une ou plusieurs fleurs. Chaque fleur mesure 1 à 4 cm et est de couleur blanche ou parfois jaune. Elles n'ont pas de pétales mais ceux-ci sont remplacés par des sépales en forme de pétale.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Populage_%C3%A0_fleurs_blanches</t>
+          <t>Populage_à_fleurs_blanches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les racines et les feuilles sont comestibles mais nécessitent d'être cuites avant d'être consommées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les racines et les feuilles sont comestibles mais nécessitent d'être cuites avant d'être consommées.
 </t>
         </is>
       </c>
